--- a/Optimisation data/combined/Clinical ABC/top/RF_feature_importance/LogisticRegression_optimisation.xlsx
+++ b/Optimisation data/combined/Clinical ABC/top/RF_feature_importance/LogisticRegression_optimisation.xlsx
@@ -157,7 +157,7 @@
     <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': False, 'max_iter': 10000, 'multi_class': 'auto', 'penalty': 'none', 'random_state': 10, 'tol': 0.0001, 'verbose': 0, 'warm_start': True}</t>
   </si>
   <si>
-    <t>[0.66507177 0.52631579 0.59808612 0.83732057 0.555     ]</t>
+    <t>[0.64384921 0.55753968 0.69032922 0.72016461 0.66326531]</t>
   </si>
 </sst>
 </file>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004315519332885742</v>
+        <v>0.01667771339416504</v>
       </c>
       <c r="C2">
-        <v>0.002135956656201816</v>
+        <v>0.004421853766433573</v>
       </c>
       <c r="D2">
-        <v>0.001811599731445312</v>
+        <v>0.002419042587280274</v>
       </c>
       <c r="E2">
-        <v>0.001027130400751576</v>
+        <v>0.0009763600723563534</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -657,37 +657,37 @@
         <v>31</v>
       </c>
       <c r="R2">
-        <v>0.4137931034482759</v>
+        <v>0.5614035087719299</v>
       </c>
       <c r="S2">
-        <v>0.5</v>
+        <v>0.4313725490196078</v>
       </c>
       <c r="T2">
-        <v>0.5333333333333333</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="U2">
-        <v>0.4285714285714285</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="V2">
-        <v>0.631578947368421</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="W2">
-        <v>0.5014553625442917</v>
+        <v>0.5633967232751402</v>
       </c>
       <c r="X2">
-        <v>0.0786730067182161</v>
+        <v>0.07092460971388945</v>
       </c>
       <c r="Y2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Z2" t="s">
         <v>47</v>
       </c>
       <c r="AA2">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB2">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009877967834472656</v>
+        <v>0.006073236465454102</v>
       </c>
       <c r="C3">
-        <v>0.008068202230655065</v>
+        <v>0.003264044651622484</v>
       </c>
       <c r="D3">
-        <v>0.001393938064575195</v>
+        <v>0.001746082305908203</v>
       </c>
       <c r="E3">
-        <v>0.0007220992380898072</v>
+        <v>0.0005268508702025855</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -743,37 +743,37 @@
         <v>32</v>
       </c>
       <c r="R3">
-        <v>0.6285714285714286</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S3">
-        <v>0.6285714285714286</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="T3">
-        <v>0.6060606060606061</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="U3">
-        <v>0.6206896551724138</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V3">
-        <v>0.6666666666666667</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W3">
-        <v>0.6301119570085086</v>
+        <v>0.561170113407071</v>
       </c>
       <c r="X3">
-        <v>0.02004116018713882</v>
+        <v>0.0788800244827743</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="s">
         <v>47</v>
       </c>
       <c r="AA3">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB3">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -781,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.002972602844238281</v>
+        <v>0.001752185821533203</v>
       </c>
       <c r="C4">
-        <v>0.001736771584141282</v>
+        <v>0.0002385684210073639</v>
       </c>
       <c r="D4">
-        <v>0.001242589950561523</v>
+        <v>0.0009346485137939453</v>
       </c>
       <c r="E4">
-        <v>0.0007570145651199246</v>
+        <v>0.000273238692802794</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -826,37 +826,37 @@
         <v>33</v>
       </c>
       <c r="R4">
-        <v>0.6666666666666667</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="S4">
-        <v>0.6666666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="T4">
-        <v>0.5945945945945946</v>
+        <v>0.5614035087719299</v>
       </c>
       <c r="U4">
-        <v>0.6829268292682926</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="V4">
-        <v>0.6</v>
+        <v>0.5185185185185186</v>
       </c>
       <c r="W4">
-        <v>0.6421709514392442</v>
+        <v>0.546273967747652</v>
       </c>
       <c r="X4">
-        <v>0.03715648148714518</v>
+        <v>0.0640390220350366</v>
       </c>
       <c r="Y4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="s">
         <v>47</v>
       </c>
       <c r="AA4">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB4">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -864,16 +864,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.003360557556152344</v>
+        <v>0.00205235481262207</v>
       </c>
       <c r="C5">
-        <v>0.00219710180649595</v>
+        <v>0.0002030336223793909</v>
       </c>
       <c r="D5">
-        <v>0.004629945755004883</v>
+        <v>0.0008274078369140625</v>
       </c>
       <c r="E5">
-        <v>0.004563154900775939</v>
+        <v>4.983817485585115E-05</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -909,37 +909,37 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>0.7027027027027027</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
-        <v>0.6486486486486486</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="T5">
-        <v>0.6666666666666667</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="U5">
-        <v>0.7096774193548387</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="V5">
-        <v>0.7</v>
+        <v>0.5937499999999999</v>
       </c>
       <c r="W5">
-        <v>0.6855390874745714</v>
+        <v>0.5392348484848485</v>
       </c>
       <c r="X5">
-        <v>0.02367884916396554</v>
+        <v>0.06323074371958229</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="s">
         <v>47</v>
       </c>
       <c r="AA5">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB5">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -947,16 +947,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.003371047973632813</v>
+        <v>0.002403783798217774</v>
       </c>
       <c r="C6">
-        <v>0.001557044195112868</v>
+        <v>0.0007959683644120436</v>
       </c>
       <c r="D6">
-        <v>0.001491785049438477</v>
+        <v>0.0009770870208740234</v>
       </c>
       <c r="E6">
-        <v>0.0007210064338612523</v>
+        <v>0.0003896888886730941</v>
       </c>
       <c r="F6">
         <v>0.01</v>
@@ -995,37 +995,37 @@
         <v>35</v>
       </c>
       <c r="R6">
-        <v>0.5882352941176471</v>
+        <v>0.634920634920635</v>
       </c>
       <c r="S6">
-        <v>0.6285714285714286</v>
+        <v>0.4745762711864406</v>
       </c>
       <c r="T6">
-        <v>0.6</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="U6">
-        <v>0.4615384615384616</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="V6">
-        <v>0.631578947368421</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="W6">
-        <v>0.5819848263191917</v>
+        <v>0.6108729882595384</v>
       </c>
       <c r="X6">
-        <v>0.06245130898771563</v>
+        <v>0.07140715576988323</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="s">
         <v>47</v>
       </c>
       <c r="AA6">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB6">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1033,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002535247802734375</v>
+        <v>0.002150058746337891</v>
       </c>
       <c r="C7">
-        <v>0.0007745028125592057</v>
+        <v>0.000135158649256228</v>
       </c>
       <c r="D7">
-        <v>0.0008043289184570312</v>
+        <v>0.0008048057556152344</v>
       </c>
       <c r="E7">
-        <v>3.467580010467569E-05</v>
+        <v>3.689579701401173E-05</v>
       </c>
       <c r="F7">
         <v>0.01</v>
@@ -1081,37 +1081,37 @@
         <v>36</v>
       </c>
       <c r="R7">
-        <v>0.6285714285714286</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S7">
-        <v>0.6285714285714286</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="T7">
-        <v>0.6060606060606061</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="U7">
-        <v>0.6206896551724138</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V7">
-        <v>0.6666666666666667</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W7">
-        <v>0.6301119570085086</v>
+        <v>0.561170113407071</v>
       </c>
       <c r="X7">
-        <v>0.02004116018713882</v>
+        <v>0.0788800244827743</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="s">
         <v>47</v>
       </c>
       <c r="AA7">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB7">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1119,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001776742935180664</v>
+        <v>0.001673269271850586</v>
       </c>
       <c r="C8">
-        <v>0.0005521394497487803</v>
+        <v>0.0004173958431448494</v>
       </c>
       <c r="D8">
-        <v>0.001303482055664062</v>
+        <v>0.0007188320159912109</v>
       </c>
       <c r="E8">
-        <v>0.001065571636506739</v>
+        <v>4.77487597301953E-05</v>
       </c>
       <c r="F8">
         <v>0.01</v>
@@ -1164,37 +1164,37 @@
         <v>37</v>
       </c>
       <c r="R8">
-        <v>0.6857142857142857</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="S8">
-        <v>0.6842105263157895</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="T8">
-        <v>0.631578947368421</v>
+        <v>0.6</v>
       </c>
       <c r="U8">
-        <v>0.6666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V8">
-        <v>0.6153846153846154</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W8">
-        <v>0.6567110082899558</v>
+        <v>0.5851962245404868</v>
       </c>
       <c r="X8">
-        <v>0.02841133563720606</v>
+        <v>0.07829723524227525</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
       </c>
       <c r="AA8">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB8">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1202,16 +1202,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.002101516723632812</v>
+        <v>0.001863336563110351</v>
       </c>
       <c r="C9">
-        <v>0.0003776178377796251</v>
+        <v>0.0001607630578983279</v>
       </c>
       <c r="D9">
-        <v>0.0009361743927001953</v>
+        <v>0.00070648193359375</v>
       </c>
       <c r="E9">
-        <v>0.0002591109863643036</v>
+        <v>2.606925916629189E-05</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -1247,37 +1247,37 @@
         <v>38</v>
       </c>
       <c r="R9">
-        <v>0.7027027027027027</v>
+        <v>0.5</v>
       </c>
       <c r="S9">
-        <v>0.6486486486486486</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="T9">
-        <v>0.6666666666666667</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="U9">
-        <v>0.7096774193548387</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="V9">
-        <v>0.7</v>
+        <v>0.5937499999999999</v>
       </c>
       <c r="W9">
-        <v>0.6855390874745714</v>
+        <v>0.5392348484848485</v>
       </c>
       <c r="X9">
-        <v>0.02367884916396554</v>
+        <v>0.06323074371958229</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="s">
         <v>47</v>
       </c>
       <c r="AA9">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB9">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1285,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.001816797256469727</v>
+        <v>0.001822853088378906</v>
       </c>
       <c r="C10">
-        <v>0.0001534716820284487</v>
+        <v>0.0001810898331769118</v>
       </c>
       <c r="D10">
-        <v>0.0007806301116943359</v>
+        <v>0.0007233142852783204</v>
       </c>
       <c r="E10">
-        <v>0.0001074257500786735</v>
+        <v>2.994613282036806E-05</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1333,37 +1333,37 @@
         <v>39</v>
       </c>
       <c r="R10">
-        <v>0.6285714285714286</v>
+        <v>0.5937499999999999</v>
       </c>
       <c r="S10">
-        <v>0.6470588235294117</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="T10">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="U10">
-        <v>0.6206896551724138</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="V10">
-        <v>0.631578947368421</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="W10">
-        <v>0.6305797709283351</v>
+        <v>0.5799669439755646</v>
       </c>
       <c r="X10">
-        <v>0.00900598912378016</v>
+        <v>0.06730288440842029</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
       </c>
       <c r="AA10">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB10">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1371,16 +1371,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.002198410034179687</v>
+        <v>0.001897716522216797</v>
       </c>
       <c r="C11">
-        <v>0.0003178864661463592</v>
+        <v>0.0001443518946606092</v>
       </c>
       <c r="D11">
-        <v>0.001009178161621094</v>
+        <v>0.0006984710693359375</v>
       </c>
       <c r="E11">
-        <v>0.0001425845483784729</v>
+        <v>3.377899081573861E-05</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -1419,37 +1419,37 @@
         <v>40</v>
       </c>
       <c r="R11">
-        <v>0.6285714285714286</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S11">
-        <v>0.6285714285714286</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="T11">
-        <v>0.6060606060606061</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="U11">
-        <v>0.6206896551724138</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V11">
-        <v>0.6666666666666667</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W11">
-        <v>0.6301119570085086</v>
+        <v>0.561170113407071</v>
       </c>
       <c r="X11">
-        <v>0.02004116018713882</v>
+        <v>0.0788800244827743</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="s">
         <v>47</v>
       </c>
       <c r="AA11">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB11">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1457,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.002195072174072265</v>
+        <v>0.002337169647216797</v>
       </c>
       <c r="C12">
-        <v>0.0006160760885371784</v>
+        <v>0.0009706953475183825</v>
       </c>
       <c r="D12">
-        <v>0.001076650619506836</v>
+        <v>0.001106977462768555</v>
       </c>
       <c r="E12">
-        <v>0.0006054660240727731</v>
+        <v>0.0007212996552790281</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -1502,37 +1502,37 @@
         <v>41</v>
       </c>
       <c r="R12">
-        <v>0.7027027027027027</v>
+        <v>0.5901639344262296</v>
       </c>
       <c r="S12">
-        <v>0.6486486486486486</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="T12">
-        <v>0.6842105263157895</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="U12">
-        <v>0.7499999999999999</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V12">
-        <v>0.6829268292682926</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="W12">
-        <v>0.6936977413870867</v>
+        <v>0.5616622504008575</v>
       </c>
       <c r="X12">
-        <v>0.03312544100067901</v>
+        <v>0.06356760777417875</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="s">
         <v>47</v>
       </c>
       <c r="AA12">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB12">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1540,16 +1540,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.002402210235595703</v>
+        <v>0.002263164520263672</v>
       </c>
       <c r="C13">
-        <v>0.001439456854589517</v>
+        <v>0.00111588786048087</v>
       </c>
       <c r="D13">
-        <v>0.0008147716522216797</v>
+        <v>0.001127052307128906</v>
       </c>
       <c r="E13">
-        <v>0.0002061584705152645</v>
+        <v>0.0005560288776991021</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -1585,37 +1585,37 @@
         <v>42</v>
       </c>
       <c r="R13">
-        <v>0.7027027027027027</v>
+        <v>0.5</v>
       </c>
       <c r="S13">
-        <v>0.6486486486486486</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="T13">
-        <v>0.6666666666666667</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="U13">
-        <v>0.7096774193548387</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="V13">
-        <v>0.7</v>
+        <v>0.5937499999999999</v>
       </c>
       <c r="W13">
-        <v>0.6855390874745714</v>
+        <v>0.5392348484848485</v>
       </c>
       <c r="X13">
-        <v>0.02367884916396554</v>
+        <v>0.06323074371958229</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="s">
         <v>47</v>
       </c>
       <c r="AA13">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB13">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1623,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.002695703506469727</v>
+        <v>0.002850341796875</v>
       </c>
       <c r="C14">
-        <v>0.0007118313769394363</v>
+        <v>0.001238884314968684</v>
       </c>
       <c r="D14">
-        <v>0.001088380813598633</v>
+        <v>0.0007994174957275391</v>
       </c>
       <c r="E14">
-        <v>0.0005073394091879527</v>
+        <v>0.0001131291510046847</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1671,37 +1671,37 @@
         <v>43</v>
       </c>
       <c r="R14">
-        <v>0.6285714285714286</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="S14">
-        <v>0.6285714285714286</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="T14">
-        <v>0.6060606060606061</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="U14">
-        <v>0.6206896551724138</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V14">
-        <v>0.631578947368421</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="W14">
-        <v>0.6230944131488595</v>
+        <v>0.570814230394997</v>
       </c>
       <c r="X14">
-        <v>0.009251120598566864</v>
+        <v>0.06733597230629797</v>
       </c>
       <c r="Y14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Z14" t="s">
         <v>47</v>
       </c>
       <c r="AA14">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB14">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1709,16 +1709,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.003381776809692383</v>
+        <v>0.002422428131103516</v>
       </c>
       <c r="C15">
-        <v>0.0004678946580062417</v>
+        <v>0.0008598976573005624</v>
       </c>
       <c r="D15">
-        <v>0.00186457633972168</v>
+        <v>0.00081787109375</v>
       </c>
       <c r="E15">
-        <v>0.0007282365454191578</v>
+        <v>0.0002297692975159042</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1757,37 +1757,37 @@
         <v>44</v>
       </c>
       <c r="R15">
-        <v>0.6285714285714286</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S15">
-        <v>0.6285714285714286</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="T15">
-        <v>0.6060606060606061</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="U15">
-        <v>0.6206896551724138</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="V15">
-        <v>0.6666666666666667</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W15">
-        <v>0.6301119570085086</v>
+        <v>0.561170113407071</v>
       </c>
       <c r="X15">
-        <v>0.02004116018713882</v>
+        <v>0.0788800244827743</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="s">
         <v>47</v>
       </c>
       <c r="AA15">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB15">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1795,16 +1795,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.002071857452392578</v>
+        <v>0.002931070327758789</v>
       </c>
       <c r="C16">
-        <v>0.0004098803844094005</v>
+        <v>0.002305809691566049</v>
       </c>
       <c r="D16">
-        <v>0.001036262512207031</v>
+        <v>0.0008890151977539063</v>
       </c>
       <c r="E16">
-        <v>0.0004777981753746355</v>
+        <v>0.000276430582129406</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1840,37 +1840,37 @@
         <v>45</v>
       </c>
       <c r="R16">
-        <v>0.7027027027027027</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="S16">
-        <v>0.6486486486486486</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="T16">
-        <v>0.6666666666666667</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="U16">
-        <v>0.7096774193548387</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="V16">
-        <v>0.7</v>
+        <v>0.5937499999999999</v>
       </c>
       <c r="W16">
-        <v>0.6855390874745714</v>
+        <v>0.5408687996729793</v>
       </c>
       <c r="X16">
-        <v>0.02367884916396554</v>
+        <v>0.05557337426217009</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="s">
         <v>47</v>
       </c>
       <c r="AA16">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB16">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1878,16 +1878,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001744413375854492</v>
+        <v>0.004493045806884766</v>
       </c>
       <c r="C17">
-        <v>0.0001987067804963059</v>
+        <v>0.005705922958679747</v>
       </c>
       <c r="D17">
-        <v>0.0007232666015625</v>
+        <v>0.0007457733154296875</v>
       </c>
       <c r="E17">
-        <v>3.781279579335813E-05</v>
+        <v>0.0001994385878857626</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1923,37 +1923,37 @@
         <v>46</v>
       </c>
       <c r="R17">
-        <v>0.7027027027027027</v>
+        <v>0.5</v>
       </c>
       <c r="S17">
-        <v>0.6486486486486486</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="T17">
-        <v>0.6666666666666667</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="U17">
-        <v>0.7096774193548387</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="V17">
-        <v>0.7</v>
+        <v>0.5937499999999999</v>
       </c>
       <c r="W17">
-        <v>0.6855390874745714</v>
+        <v>0.5392348484848485</v>
       </c>
       <c r="X17">
-        <v>0.02367884916396554</v>
+        <v>0.06323074371958229</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="s">
         <v>47</v>
       </c>
       <c r="AA17">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="AB17">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
   </sheetData>
